--- a/03_voca.xlsx
+++ b/03_voca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmoon\Desktop\study\CSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmoon\Desktop\study\voca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6B0DC9-3DAA-4AF5-AE09-67A310FA1C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F9529F-948E-457A-8401-0BCC9EFAF3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{642B3EF0-56A1-4CE8-BB24-46A5AF632A86}"/>
+    <workbookView xWindow="5976" yWindow="3288" windowWidth="17280" windowHeight="8964" xr2:uid="{642B3EF0-56A1-4CE8-BB24-46A5AF632A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>평가하다</t>
   </si>
@@ -1297,6 +1297,10 @@
   </si>
   <si>
     <t>Ex) the first ascent of Mount Everest, The cart began its gradual ascent up the hill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1588,18 +1592,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,6 +1607,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1624,8 +1619,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,10 +1647,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1949,22 +1949,22 @@
   <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+      <selection activeCell="B201" sqref="B201:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="9"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
     <col min="2" max="2" width="23.69921875" customWidth="1"/>
     <col min="3" max="3" width="117.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1972,23 +1972,23 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1996,23 +1996,23 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2020,23 +2020,23 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2044,23 +2044,23 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2068,23 +2068,23 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2092,23 +2092,23 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2116,23 +2116,23 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2140,23 +2140,23 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2164,23 +2164,23 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2188,23 +2188,23 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2212,23 +2212,23 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2236,23 +2236,23 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2260,23 +2260,23 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="15"/>
     </row>
     <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2284,23 +2284,23 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2308,23 +2308,23 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2332,23 +2332,23 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2356,23 +2356,23 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2380,23 +2380,23 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2404,23 +2404,23 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2428,23 +2428,23 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2452,23 +2452,23 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="15"/>
     </row>
     <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2476,23 +2476,23 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="13"/>
     </row>
     <row r="88" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2500,23 +2500,23 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="13"/>
     </row>
     <row r="92" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="15"/>
     </row>
     <row r="93" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2524,23 +2524,23 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="13"/>
     </row>
     <row r="96" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="15"/>
     </row>
     <row r="97" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2548,23 +2548,23 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="13"/>
     </row>
     <row r="100" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="15"/>
     </row>
     <row r="101" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2572,23 +2572,23 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="13"/>
     </row>
     <row r="104" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C104" s="5"/>
+      <c r="C104" s="15"/>
     </row>
     <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2596,23 +2596,23 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="15"/>
     </row>
     <row r="109" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2620,23 +2620,23 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="13"/>
     </row>
     <row r="112" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C112" s="5"/>
+      <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2645,10 +2645,10 @@
     </row>
     <row r="115" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -2656,23 +2656,23 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="13"/>
     </row>
     <row r="118" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="5"/>
+      <c r="C118" s="15"/>
     </row>
     <row r="119" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -2680,53 +2680,53 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C122" s="5"/>
+      <c r="C122" s="15"/>
     </row>
     <row r="123" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="E125" s="6" t="s">
+      <c r="C125" s="13"/>
+      <c r="E125" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="15"/>
     </row>
     <row r="127" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -2734,23 +2734,23 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="13"/>
     </row>
     <row r="130" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C130" s="5"/>
+      <c r="C130" s="15"/>
     </row>
     <row r="131" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -2758,23 +2758,23 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="5"/>
+      <c r="C134" s="15"/>
     </row>
     <row r="135" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -2782,23 +2782,23 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="13"/>
     </row>
     <row r="138" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C138" s="5"/>
+      <c r="C138" s="15"/>
     </row>
     <row r="139" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -2806,23 +2806,23 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="13"/>
     </row>
     <row r="142" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C142" s="5"/>
+      <c r="C142" s="15"/>
     </row>
     <row r="143" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -2830,23 +2830,23 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C146" s="5"/>
+      <c r="C146" s="15"/>
     </row>
     <row r="147" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -2854,23 +2854,23 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C150" s="5"/>
+      <c r="C150" s="15"/>
     </row>
     <row r="151" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -2878,23 +2878,23 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="15"/>
     </row>
     <row r="155" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -2902,23 +2902,23 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="13"/>
     </row>
     <row r="158" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="15"/>
     </row>
     <row r="159" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -2926,23 +2926,23 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="13"/>
     </row>
     <row r="162" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C162" s="5"/>
+      <c r="C162" s="15"/>
     </row>
     <row r="163" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -2950,23 +2950,23 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="13"/>
     </row>
     <row r="166" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C166" s="5"/>
+      <c r="C166" s="15"/>
     </row>
     <row r="167" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -2974,23 +2974,23 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C170" s="5"/>
+      <c r="C170" s="15"/>
     </row>
     <row r="171" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -2998,23 +2998,23 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="13"/>
     </row>
     <row r="174" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C174" s="5"/>
+      <c r="C174" s="15"/>
     </row>
     <row r="175" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -3022,23 +3022,23 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="13"/>
     </row>
     <row r="178" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="5"/>
+      <c r="C178" s="15"/>
     </row>
     <row r="179" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -3046,23 +3046,23 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="13"/>
     </row>
     <row r="182" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C182" s="5"/>
+      <c r="C182" s="15"/>
     </row>
     <row r="183" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -3070,24 +3070,24 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C185" s="12"/>
-      <c r="E185" s="8" t="s">
+      <c r="C185" s="9"/>
+      <c r="E185" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B186" s="13"/>
-      <c r="C186" s="14"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -3095,21 +3095,21 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C189" s="12"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B190" s="13"/>
-      <c r="C190" s="14"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -3117,23 +3117,23 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="13"/>
     </row>
     <row r="194" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C194" s="5"/>
+      <c r="C194" s="15"/>
     </row>
     <row r="195" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -3141,403 +3141,525 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C198" s="5"/>
+      <c r="C198" s="15"/>
     </row>
     <row r="199" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B200" s="7"/>
+      <c r="B200" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B201" s="2"/>
-      <c r="C201" s="3"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B202" s="4"/>
-      <c r="C202" s="5"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="15"/>
     </row>
     <row r="203" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204" s="11" t="s">
+      <c r="A204" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B204" s="7"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B205" s="2"/>
-      <c r="C205" s="3"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="13"/>
     </row>
     <row r="206" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B206" s="4"/>
-      <c r="C206" s="5"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="15"/>
     </row>
     <row r="207" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B208" s="7"/>
+      <c r="B208" s="3"/>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B209" s="2"/>
-      <c r="C209" s="3"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="13"/>
     </row>
     <row r="210" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B210" s="4"/>
-      <c r="C210" s="5"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="15"/>
     </row>
     <row r="211" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B212" s="7"/>
+      <c r="B212" s="3"/>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B213" s="2"/>
-      <c r="C213" s="3"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="13"/>
     </row>
     <row r="214" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B214" s="4"/>
-      <c r="C214" s="5"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="15"/>
     </row>
     <row r="215" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A216" s="10" t="s">
+      <c r="A216" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B216" s="7"/>
+      <c r="B216" s="3"/>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B217" s="2"/>
-      <c r="C217" s="3"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="13"/>
     </row>
     <row r="218" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B218" s="4"/>
-      <c r="C218" s="5"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="15"/>
     </row>
     <row r="219" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A220" s="11" t="s">
+      <c r="A220" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B220" s="7"/>
+      <c r="B220" s="3"/>
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B221" s="2"/>
-      <c r="C221" s="3"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="13"/>
     </row>
     <row r="222" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B222" s="4"/>
-      <c r="C222" s="5"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="15"/>
     </row>
     <row r="223" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B224" s="7"/>
+      <c r="B224" s="3"/>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B225" s="2"/>
-      <c r="C225" s="3"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B226" s="4"/>
-      <c r="C226" s="5"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="15"/>
     </row>
     <row r="227" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A228" s="11" t="s">
+      <c r="A228" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B228" s="7"/>
+      <c r="B228" s="3"/>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B229" s="2"/>
-      <c r="C229" s="3"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="13"/>
     </row>
     <row r="230" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B230" s="4"/>
-      <c r="C230" s="5"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="15"/>
     </row>
     <row r="231" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A232" s="10" t="s">
+      <c r="A232" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B232" s="7"/>
+      <c r="B232" s="3"/>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B233" s="2"/>
-      <c r="C233" s="3"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="13"/>
     </row>
     <row r="234" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B234" s="4"/>
-      <c r="C234" s="5"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="15"/>
     </row>
     <row r="235" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A236" s="11" t="s">
+      <c r="A236" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B236" s="7"/>
+      <c r="B236" s="3"/>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B237" s="2"/>
-      <c r="C237" s="3"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="13"/>
     </row>
     <row r="238" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B238" s="4"/>
-      <c r="C238" s="5"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="15"/>
     </row>
     <row r="239" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B240" s="7"/>
+      <c r="B240" s="3"/>
       <c r="C240" s="1"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B241" s="2"/>
-      <c r="C241" s="3"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="13"/>
     </row>
     <row r="242" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B242" s="4"/>
-      <c r="C242" s="5"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="15"/>
     </row>
     <row r="243" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A244" s="11" t="s">
+      <c r="A244" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B244" s="7"/>
+      <c r="B244" s="3"/>
       <c r="C244" s="1"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B245" s="2"/>
-      <c r="C245" s="3"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="13"/>
     </row>
     <row r="246" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B246" s="4"/>
-      <c r="C246" s="5"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="15"/>
     </row>
     <row r="247" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A248" s="10" t="s">
+      <c r="A248" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B248" s="7"/>
+      <c r="B248" s="3"/>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B249" s="2"/>
-      <c r="C249" s="3"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="13"/>
     </row>
     <row r="250" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B250" s="4"/>
-      <c r="C250" s="5"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="15"/>
     </row>
     <row r="251" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A252" s="11" t="s">
+      <c r="A252" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B252" s="7"/>
+      <c r="B252" s="3"/>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B253" s="2"/>
-      <c r="C253" s="3"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="13"/>
     </row>
     <row r="254" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B254" s="4"/>
-      <c r="C254" s="5"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="15"/>
     </row>
     <row r="255" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B256" s="7"/>
+      <c r="B256" s="3"/>
       <c r="C256" s="1"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B257" s="2"/>
-      <c r="C257" s="3"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="13"/>
     </row>
     <row r="258" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B258" s="4"/>
-      <c r="C258" s="5"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="15"/>
     </row>
     <row r="259" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A260" s="11" t="s">
+      <c r="A260" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B260" s="7"/>
+      <c r="B260" s="3"/>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B261" s="2"/>
-      <c r="C261" s="3"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="13"/>
     </row>
     <row r="262" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B262" s="4"/>
-      <c r="C262" s="5"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="15"/>
     </row>
     <row r="263" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B264" s="7"/>
+      <c r="B264" s="3"/>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B265" s="2"/>
-      <c r="C265" s="3"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="13"/>
     </row>
     <row r="266" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B266" s="4"/>
-      <c r="C266" s="5"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="15"/>
     </row>
     <row r="267" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A268" s="11" t="s">
+      <c r="A268" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B268" s="7"/>
+      <c r="B268" s="3"/>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B269" s="2"/>
-      <c r="C269" s="3"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="13"/>
     </row>
     <row r="270" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B270" s="4"/>
-      <c r="C270" s="5"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="15"/>
     </row>
     <row r="271" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A272" s="10" t="s">
+      <c r="A272" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B272" s="7"/>
+      <c r="B272" s="3"/>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B273" s="2"/>
-      <c r="C273" s="3"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="13"/>
     </row>
     <row r="274" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B274" s="4"/>
-      <c r="C274" s="5"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="15"/>
     </row>
     <row r="275" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A276" s="11" t="s">
+      <c r="A276" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B276" s="7"/>
+      <c r="B276" s="3"/>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B277" s="2"/>
-      <c r="C277" s="3"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="13"/>
     </row>
     <row r="278" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B278" s="4"/>
-      <c r="C278" s="5"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="15"/>
     </row>
     <row r="279" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A280" s="10" t="s">
+      <c r="A280" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B280" s="7"/>
+      <c r="B280" s="3"/>
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B281" s="2"/>
-      <c r="C281" s="3"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="13"/>
     </row>
     <row r="282" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B282" s="4"/>
-      <c r="C282" s="5"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="15"/>
     </row>
     <row r="283" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A284" s="11" t="s">
+      <c r="A284" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B284" s="7"/>
+      <c r="B284" s="3"/>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B285" s="2"/>
-      <c r="C285" s="3"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="13"/>
     </row>
     <row r="286" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B286" s="4"/>
-      <c r="C286" s="5"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="15"/>
     </row>
     <row r="287" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A288" s="10" t="s">
+      <c r="A288" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B288" s="7"/>
+      <c r="B288" s="3"/>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B289" s="2"/>
-      <c r="C289" s="3"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="13"/>
     </row>
     <row r="290" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B290" s="4"/>
-      <c r="C290" s="5"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="15"/>
     </row>
     <row r="291" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A292" s="11" t="s">
+      <c r="A292" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B292" s="7"/>
+      <c r="B292" s="3"/>
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B293" s="2"/>
-      <c r="C293" s="3"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="13"/>
     </row>
     <row r="294" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B294" s="4"/>
-      <c r="C294" s="5"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B138:C138"/>
     <mergeCell ref="B185:C186"/>
     <mergeCell ref="B189:C190"/>
     <mergeCell ref="B269:C269"/>
@@ -3558,130 +3680,10 @@
     <mergeCell ref="B214:C214"/>
     <mergeCell ref="B217:C217"/>
     <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B293:C293"/>
     <mergeCell ref="B286:C286"/>
     <mergeCell ref="B289:C289"/>
     <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_voca.xlsx
+++ b/03_voca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmoon\Desktop\study\voca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F9529F-948E-457A-8401-0BCC9EFAF3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C318FD7-5A2E-4640-B655-74AF620B742D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5976" yWindow="3288" windowWidth="17280" windowHeight="8964" xr2:uid="{642B3EF0-56A1-4CE8-BB24-46A5AF632A86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{642B3EF0-56A1-4CE8-BB24-46A5AF632A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
   <si>
     <t>평가하다</t>
   </si>
@@ -229,48 +229,6 @@
   </si>
   <si>
     <t>Num 60</t>
-  </si>
-  <si>
-    <t>Num 61</t>
-  </si>
-  <si>
-    <t>Num 62</t>
-  </si>
-  <si>
-    <t>Num 63</t>
-  </si>
-  <si>
-    <t>Num 64</t>
-  </si>
-  <si>
-    <t>Num 65</t>
-  </si>
-  <si>
-    <t>Num 66</t>
-  </si>
-  <si>
-    <t>Num 67</t>
-  </si>
-  <si>
-    <t>Num 68</t>
-  </si>
-  <si>
-    <t>Num 69</t>
-  </si>
-  <si>
-    <t>Num 70</t>
-  </si>
-  <si>
-    <t>Num 71</t>
-  </si>
-  <si>
-    <t>Num 72</t>
-  </si>
-  <si>
-    <t>Num 73</t>
-  </si>
-  <si>
-    <t>Num 74</t>
   </si>
   <si>
     <t xml:space="preserve">Whether </t>
@@ -1607,6 +1565,18 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1617,18 +1587,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBF9016-A6AC-445F-9374-8DEA86D93707}">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201:C201"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194:C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1972,16 +1930,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1989,23 +1947,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="13"/>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -2013,23 +1971,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -2037,23 +1995,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="13"/>
+      <c r="B15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="15"/>
+      <c r="B16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -2061,23 +2019,23 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="13"/>
+      <c r="B19" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="15"/>
+      <c r="B20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -2085,23 +2043,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="13"/>
+      <c r="B23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="15"/>
+      <c r="B24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -2109,23 +2067,23 @@
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="13"/>
+      <c r="B27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="15"/>
+      <c r="B28" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -2133,23 +2091,23 @@
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="13"/>
+      <c r="B31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="15"/>
+      <c r="B32" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -2157,23 +2115,23 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="13"/>
+      <c r="B35" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="15"/>
+      <c r="B36" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -2181,23 +2139,23 @@
         <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="13"/>
+      <c r="B39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="15"/>
+      <c r="B40" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -2205,23 +2163,23 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="13"/>
+      <c r="B43" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="15"/>
+      <c r="B44" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -2229,23 +2187,23 @@
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B47" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="13"/>
+      <c r="B47" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="15"/>
+      <c r="B48" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -2253,23 +2211,23 @@
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="13"/>
+      <c r="B51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="15"/>
+      <c r="B52" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -2277,23 +2235,23 @@
         <v>17</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="13"/>
+      <c r="B55" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="15"/>
+      <c r="B56" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -2301,23 +2259,23 @@
         <v>18</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="13"/>
+      <c r="B59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" s="15"/>
+      <c r="B60" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -2325,23 +2283,23 @@
         <v>19</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="13"/>
+      <c r="B63" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="15"/>
+      <c r="B64" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -2349,23 +2307,23 @@
         <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="13"/>
+      <c r="B67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="15"/>
+      <c r="B68" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -2373,23 +2331,23 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B71" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="13"/>
+      <c r="B71" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="15"/>
+      <c r="B72" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -2397,23 +2355,23 @@
         <v>22</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="13"/>
+      <c r="B75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="15"/>
+      <c r="B76" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -2421,23 +2379,23 @@
         <v>23</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="13"/>
+      <c r="B79" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="15"/>
+      <c r="B80" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -2445,23 +2403,23 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B83" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C83" s="13"/>
+      <c r="B83" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="15"/>
+      <c r="B84" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -2469,23 +2427,23 @@
         <v>25</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B87" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="13"/>
+      <c r="B87" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="15"/>
+      <c r="B88" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -2493,23 +2451,23 @@
         <v>26</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" s="13"/>
+      <c r="B91" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C92" s="15"/>
+      <c r="B92" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -2517,23 +2475,23 @@
         <v>27</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C95" s="13"/>
+      <c r="B95" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C96" s="15"/>
+      <c r="B96" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -2541,23 +2499,23 @@
         <v>28</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B99" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="13"/>
+      <c r="B99" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" s="15"/>
+      <c r="B100" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -2565,23 +2523,23 @@
         <v>29</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" s="13"/>
+      <c r="B103" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="15"/>
+      <c r="B104" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -2589,23 +2547,23 @@
         <v>30</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B107" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C107" s="13"/>
+      <c r="B107" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" s="15"/>
+      <c r="B108" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -2613,23 +2571,23 @@
         <v>31</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B111" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" s="13"/>
+      <c r="B111" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112" s="15"/>
+      <c r="B112" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -2637,10 +2595,10 @@
         <v>32</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2649,23 +2607,23 @@
         <v>33</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C117" s="13"/>
+      <c r="B117" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="15"/>
+      <c r="B118" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -2673,23 +2631,23 @@
         <v>34</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B121" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C121" s="13"/>
+      <c r="B121" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C122" s="15"/>
+      <c r="B122" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -2697,29 +2655,29 @@
         <v>35</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C125" s="13"/>
+      <c r="B125" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="9"/>
       <c r="E125" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C126" s="15"/>
+      <c r="B126" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -2727,23 +2685,23 @@
         <v>36</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B129" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C129" s="13"/>
+      <c r="B129" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C130" s="15"/>
+      <c r="B130" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -2751,23 +2709,23 @@
         <v>37</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B133" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C133" s="13"/>
+      <c r="B133" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="15"/>
+      <c r="B134" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -2775,23 +2733,23 @@
         <v>38</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B137" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C137" s="13"/>
+      <c r="B137" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C138" s="15"/>
+      <c r="B138" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
@@ -2799,23 +2757,23 @@
         <v>39</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B141" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C141" s="13"/>
+      <c r="B141" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B142" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C142" s="15"/>
+      <c r="B142" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -2823,23 +2781,23 @@
         <v>40</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B145" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C145" s="13"/>
+      <c r="B145" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B146" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C146" s="15"/>
+      <c r="B146" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -2847,23 +2805,23 @@
         <v>41</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B149" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C149" s="13"/>
+      <c r="B149" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C150" s="15"/>
+      <c r="B150" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -2871,23 +2829,23 @@
         <v>42</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B153" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C153" s="13"/>
+      <c r="B153" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B154" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C154" s="15"/>
+      <c r="B154" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -2895,23 +2853,23 @@
         <v>43</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B157" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" s="13"/>
+      <c r="B157" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C158" s="15"/>
+      <c r="B158" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -2919,23 +2877,23 @@
         <v>44</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B161" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C161" s="13"/>
+      <c r="B161" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B162" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C162" s="15"/>
+      <c r="B162" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -2943,23 +2901,23 @@
         <v>45</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B165" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C165" s="13"/>
+      <c r="B165" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B166" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C166" s="15"/>
+      <c r="B166" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -2967,23 +2925,23 @@
         <v>46</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B169" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C169" s="13"/>
+      <c r="B169" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B170" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C170" s="15"/>
+      <c r="B170" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C170" s="11"/>
     </row>
     <row r="171" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -2991,23 +2949,23 @@
         <v>47</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B173" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C173" s="13"/>
+      <c r="B173" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B174" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C174" s="15"/>
+      <c r="B174" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -3015,23 +2973,23 @@
         <v>48</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B177" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C177" s="13"/>
+      <c r="B177" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B178" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C178" s="15"/>
+      <c r="B178" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C178" s="11"/>
     </row>
     <row r="179" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
@@ -3039,23 +2997,23 @@
         <v>49</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B181" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C181" s="13"/>
+      <c r="B181" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B182" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C182" s="15"/>
+      <c r="B182" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C182" s="11"/>
     </row>
     <row r="183" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -3063,24 +3021,24 @@
         <v>50</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B185" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C185" s="9"/>
+      <c r="B185" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C185" s="13"/>
       <c r="E185" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B186" s="10"/>
-      <c r="C186" s="11"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="15"/>
     </row>
     <row r="187" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
@@ -3088,21 +3046,21 @@
         <v>51</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B189" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C189" s="9"/>
+      <c r="B189" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C189" s="13"/>
     </row>
     <row r="190" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B190" s="10"/>
-      <c r="C190" s="11"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="15"/>
     </row>
     <row r="191" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
@@ -3110,23 +3068,23 @@
         <v>52</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B193" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C193" s="13"/>
+      <c r="B193" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C194" s="15"/>
+      <c r="B194" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -3134,23 +3092,23 @@
         <v>53</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B197" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C197" s="13"/>
+      <c r="B197" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B198" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C198" s="15"/>
+      <c r="B198" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -3158,17 +3116,17 @@
         <v>54</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B201" s="12"/>
-      <c r="C201" s="13"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B202" s="14"/>
-      <c r="C202" s="15"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
@@ -3179,12 +3137,12 @@
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B205" s="12"/>
-      <c r="C205" s="13"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B206" s="14"/>
-      <c r="C206" s="15"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="11"/>
     </row>
     <row r="207" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -3195,12 +3153,12 @@
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B209" s="12"/>
-      <c r="C209" s="13"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B210" s="14"/>
-      <c r="C210" s="15"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -3211,12 +3169,12 @@
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B213" s="12"/>
-      <c r="C213" s="13"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B214" s="14"/>
-      <c r="C214" s="15"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -3227,12 +3185,12 @@
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B217" s="12"/>
-      <c r="C217" s="13"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B218" s="14"/>
-      <c r="C218" s="15"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="11"/>
     </row>
     <row r="219" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -3243,12 +3201,12 @@
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B221" s="12"/>
-      <c r="C221" s="13"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B222" s="14"/>
-      <c r="C222" s="15"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="11"/>
     </row>
     <row r="223" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -3259,12 +3217,12 @@
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B225" s="12"/>
-      <c r="C225" s="13"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B226" s="14"/>
-      <c r="C226" s="15"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="11"/>
     </row>
     <row r="227" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
@@ -3275,12 +3233,12 @@
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B229" s="12"/>
-      <c r="C229" s="13"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B230" s="14"/>
-      <c r="C230" s="15"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="11"/>
     </row>
     <row r="231" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
@@ -3291,12 +3249,12 @@
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B233" s="12"/>
-      <c r="C233" s="13"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B234" s="14"/>
-      <c r="C234" s="15"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="11"/>
     </row>
     <row r="235" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
@@ -3307,320 +3265,37 @@
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B237" s="12"/>
-      <c r="C237" s="13"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B238" s="14"/>
-      <c r="C238" s="15"/>
-    </row>
-    <row r="239" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A240" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B241" s="12"/>
-      <c r="C241" s="13"/>
-    </row>
-    <row r="242" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B242" s="14"/>
-      <c r="C242" s="15"/>
-    </row>
-    <row r="243" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A244" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B245" s="12"/>
-      <c r="C245" s="13"/>
-    </row>
-    <row r="246" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B246" s="14"/>
-      <c r="C246" s="15"/>
-    </row>
-    <row r="247" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A248" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="1"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B249" s="12"/>
-      <c r="C249" s="13"/>
-    </row>
-    <row r="250" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B250" s="14"/>
-      <c r="C250" s="15"/>
-    </row>
-    <row r="251" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A252" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B252" s="3"/>
-      <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B253" s="12"/>
-      <c r="C253" s="13"/>
-    </row>
-    <row r="254" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B254" s="14"/>
-      <c r="C254" s="15"/>
-    </row>
-    <row r="255" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A256" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B257" s="12"/>
-      <c r="C257" s="13"/>
-    </row>
-    <row r="258" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B258" s="14"/>
-      <c r="C258" s="15"/>
-    </row>
-    <row r="259" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A260" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B261" s="12"/>
-      <c r="C261" s="13"/>
-    </row>
-    <row r="262" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B262" s="14"/>
-      <c r="C262" s="15"/>
-    </row>
-    <row r="263" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A264" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="1"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B265" s="12"/>
-      <c r="C265" s="13"/>
-    </row>
-    <row r="266" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B266" s="14"/>
-      <c r="C266" s="15"/>
-    </row>
-    <row r="267" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A268" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="1"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B269" s="12"/>
-      <c r="C269" s="13"/>
-    </row>
-    <row r="270" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B270" s="14"/>
-      <c r="C270" s="15"/>
-    </row>
-    <row r="271" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A272" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B272" s="3"/>
-      <c r="C272" s="1"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B273" s="12"/>
-      <c r="C273" s="13"/>
-    </row>
-    <row r="274" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B274" s="14"/>
-      <c r="C274" s="15"/>
-    </row>
-    <row r="275" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A276" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B276" s="3"/>
-      <c r="C276" s="1"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B277" s="12"/>
-      <c r="C277" s="13"/>
-    </row>
-    <row r="278" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B278" s="14"/>
-      <c r="C278" s="15"/>
-    </row>
-    <row r="279" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A280" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B281" s="12"/>
-      <c r="C281" s="13"/>
-    </row>
-    <row r="282" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B282" s="14"/>
-      <c r="C282" s="15"/>
-    </row>
-    <row r="283" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A284" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B284" s="3"/>
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B285" s="12"/>
-      <c r="C285" s="13"/>
-    </row>
-    <row r="286" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B286" s="14"/>
-      <c r="C286" s="15"/>
-    </row>
-    <row r="287" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A288" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B288" s="3"/>
-      <c r="C288" s="1"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B289" s="12"/>
-      <c r="C289" s="13"/>
-    </row>
-    <row r="290" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B290" s="14"/>
-      <c r="C290" s="15"/>
-    </row>
-    <row r="291" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A292" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B292" s="3"/>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B293" s="12"/>
-      <c r="C293" s="13"/>
-    </row>
-    <row r="294" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B294" s="14"/>
-      <c r="C294" s="15"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="116">
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B138:C138"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B103:C103"/>
@@ -3642,48 +3317,79 @@
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B162:C162"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B178:C178"/>
     <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B138:C138"/>
     <mergeCell ref="B185:C186"/>
     <mergeCell ref="B189:C190"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_voca.xlsx
+++ b/03_voca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmoon\Desktop\study\voca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C318FD7-5A2E-4640-B655-74AF620B742D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0402F-C972-4968-B093-878AC54160F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{642B3EF0-56A1-4CE8-BB24-46A5AF632A86}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="268">
   <si>
     <t>평가하다</t>
   </si>
@@ -1258,7 +1258,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hi</t>
+    <t>subsequent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음의 차후의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>substance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>substancial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물질, 실체, 본질</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당한 (= considerable), 크고 단단한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemporaneous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시에 발생(존재)하는 (=contemprorary)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1565,16 +1601,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBF9016-A6AC-445F-9374-8DEA86D93707}">
   <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194:C194"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213:C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1930,16 +1966,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1954,16 +1990,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1978,16 +2014,16 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -2002,16 +2038,16 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -2026,16 +2062,16 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -2050,16 +2086,16 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -2074,16 +2110,16 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -2098,16 +2134,16 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -2122,16 +2158,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -2146,16 +2182,16 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -2170,16 +2206,16 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -2194,16 +2230,16 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -2218,16 +2254,16 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -2242,16 +2278,16 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="11"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -2266,16 +2302,16 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -2290,16 +2326,16 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="11"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -2314,16 +2350,16 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="11"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -2338,16 +2374,16 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -2362,16 +2398,16 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C76" s="11"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -2386,16 +2422,16 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="11"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -2410,16 +2446,16 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="11"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -2434,16 +2470,16 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C88" s="11"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -2458,16 +2494,16 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="11"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -2482,16 +2518,16 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -2506,16 +2542,16 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C100" s="11"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -2530,16 +2566,16 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="11"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -2554,16 +2590,16 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="11"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -2578,16 +2614,16 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C111" s="9"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="11"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -2614,16 +2650,16 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C117" s="9"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="11"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -2638,16 +2674,16 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C122" s="11"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -2665,19 +2701,19 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="11"/>
       <c r="E125" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="11"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -2692,16 +2728,16 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="11"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -2716,16 +2752,16 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C134" s="11"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -2740,16 +2776,16 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="11"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
@@ -2764,16 +2800,16 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C141" s="9"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C142" s="11"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -2788,16 +2824,16 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C146" s="11"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -2812,16 +2848,16 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="11"/>
     </row>
     <row r="150" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C150" s="11"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -2836,16 +2872,16 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C153" s="9"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C154" s="11"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -2860,16 +2896,16 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C158" s="11"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -2884,16 +2920,16 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C161" s="9"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C162" s="11"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -2908,16 +2944,16 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C165" s="9"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C166" s="11"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -2932,16 +2968,16 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C170" s="11"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -2956,16 +2992,16 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C173" s="9"/>
+      <c r="C173" s="11"/>
     </row>
     <row r="174" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C174" s="11"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -2980,16 +3016,16 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="178" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="11"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
@@ -3004,16 +3040,16 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C181" s="9"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C182" s="11"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -3075,16 +3111,16 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C193" s="9"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C194" s="11"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -3099,16 +3135,16 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C197" s="9"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C198" s="11"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -3118,79 +3154,97 @@
       <c r="B200" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B201" s="8"/>
-      <c r="C201" s="9"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B202" s="10"/>
-      <c r="C202" s="11"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="1"/>
+      <c r="B204" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B205" s="8"/>
-      <c r="C205" s="9"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B206" s="10"/>
-      <c r="C206" s="11"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B208" s="3"/>
-      <c r="C208" s="1"/>
+      <c r="B208" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B209" s="8"/>
-      <c r="C209" s="9"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="11"/>
     </row>
     <row r="210" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B212" s="3"/>
-      <c r="C212" s="1"/>
+      <c r="B212" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B213" s="8"/>
-      <c r="C213" s="9"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B214" s="10"/>
-      <c r="C214" s="11"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="1"/>
+      <c r="B216" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B217" s="8"/>
-      <c r="C217" s="9"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B218" s="10"/>
-      <c r="C218" s="11"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -3201,12 +3255,12 @@
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B221" s="8"/>
-      <c r="C221" s="9"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="11"/>
     </row>
     <row r="222" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B222" s="10"/>
-      <c r="C222" s="11"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -3217,12 +3271,12 @@
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B225" s="8"/>
-      <c r="C225" s="9"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="11"/>
     </row>
     <row r="226" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B226" s="10"/>
-      <c r="C226" s="11"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
@@ -3233,12 +3287,12 @@
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B229" s="8"/>
-      <c r="C229" s="9"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="11"/>
     </row>
     <row r="230" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B230" s="10"/>
-      <c r="C230" s="11"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
@@ -3249,12 +3303,12 @@
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B233" s="8"/>
-      <c r="C233" s="9"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="11"/>
     </row>
     <row r="234" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B234" s="10"/>
-      <c r="C234" s="11"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
@@ -3265,37 +3319,83 @@
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B237" s="8"/>
-      <c r="C237" s="9"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B238" s="10"/>
-      <c r="C238" s="11"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B189:C190"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B185:C186"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B181:C181"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B103:C103"/>
@@ -3320,76 +3420,30 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B138:C138"/>
     <mergeCell ref="B177:C177"/>
     <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B185:C186"/>
-    <mergeCell ref="B189:C190"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
